--- a/input/time_series_factor.xlsx
+++ b/input/time_series_factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C59E3-D303-406A-B429-72CAA160EF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF6D76D-F404-4EB0-A781-0D883EC992EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -218,9 +218,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -269,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,6 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10498,7 +10500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D18E90C-6D91-4744-9FCB-A05B59544AB8}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10524,200 +10526,200 @@
       <c r="A3">
         <v>2011</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" s="13">
+        <v>0.99173957577859906</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" s="13">
+        <v>0.86059068880396805</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" s="13">
+        <v>0.78722508097341604</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2014</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" s="13">
+        <v>1.0094615371111499</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" s="13">
+        <v>1.1228884627532301</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" s="13">
+        <v>0.99173957577859906</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" s="13">
+        <v>0.99859866345097603</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" s="13">
+        <v>0.99173957577859906</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" s="13">
+        <v>1.04153458963179</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2020</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" s="13">
+        <v>1.2151025730446301</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2021</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" s="13">
+        <v>1.29337645649402</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" s="13">
+        <v>1.3268671331751301</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" s="13">
+        <v>1.36645046006617</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2024</v>
       </c>
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" s="13">
+        <v>1.42220954606606</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2025</v>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" s="13">
+        <v>1.46436477265473</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2026</v>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" s="13">
+        <v>1.4768776752155901</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2027</v>
       </c>
-      <c r="B19">
-        <v>0</v>
+      <c r="B19" s="13">
+        <v>1.50466520689601</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2028</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B20" s="13">
+        <v>1.47015296946967</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2029</v>
       </c>
-      <c r="B21">
-        <v>0</v>
+      <c r="B21" s="13">
+        <v>1.4997604460148899</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2030</v>
       </c>
-      <c r="B22">
-        <v>0</v>
+      <c r="B22" s="13">
+        <v>1.5126282043028001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2031</v>
       </c>
-      <c r="B23">
-        <v>0</v>
+      <c r="B23" s="13">
+        <v>1.5773769220114</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
-      <c r="B24">
-        <v>0</v>
+      <c r="B24" s="13">
+        <v>1.54116165436194</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2033</v>
       </c>
-      <c r="B25">
-        <v>0</v>
+      <c r="B25" s="13">
+        <v>1.58230737476171</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2034</v>
       </c>
-      <c r="B26">
-        <v>0</v>
+      <c r="B26" s="13">
+        <v>1.6228671116386899</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2035</v>
       </c>
-      <c r="B27">
-        <v>0</v>
+      <c r="B27" s="13">
+        <v>1.57853459564454</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -11311,7 +11313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B1C6-B095-49F5-BE52-65A3AD804239}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
